--- a/Model/BayesLSTM/Univariate/result/Manufacturing/GBR.xlsx
+++ b/Model/BayesLSTM/Univariate/result/Manufacturing/GBR.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>1998</v>
       </c>
       <c r="B2" t="n">
-        <v>12.12252235412598</v>
+        <v>10.83218193054199</v>
       </c>
       <c r="C2" t="n">
-        <v>10.83865833282471</v>
+        <v>9.781254768371582</v>
       </c>
       <c r="D2" t="n">
-        <v>13.40638637542725</v>
+        <v>11.8831090927124</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>1999</v>
       </c>
       <c r="B3" t="n">
-        <v>11.97817516326904</v>
+        <v>11.28825569152832</v>
       </c>
       <c r="C3" t="n">
-        <v>10.678879737854</v>
+        <v>10.07757472991943</v>
       </c>
       <c r="D3" t="n">
-        <v>13.27747058868408</v>
+        <v>12.49893665313721</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>2000</v>
       </c>
       <c r="B4" t="n">
-        <v>12.069580078125</v>
+        <v>10.95942878723145</v>
       </c>
       <c r="C4" t="n">
-        <v>10.97042655944824</v>
+        <v>9.526662826538086</v>
       </c>
       <c r="D4" t="n">
-        <v>13.16873359680176</v>
+        <v>12.3921947479248</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>2001</v>
       </c>
       <c r="B5" t="n">
-        <v>12.12431144714355</v>
+        <v>11.29406547546387</v>
       </c>
       <c r="C5" t="n">
-        <v>11.1190767288208</v>
+        <v>9.721868515014648</v>
       </c>
       <c r="D5" t="n">
-        <v>13.12954616546631</v>
+        <v>12.86626243591309</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         <v>2002</v>
       </c>
       <c r="B6" t="n">
-        <v>12.17531108856201</v>
+        <v>10.98558807373047</v>
       </c>
       <c r="C6" t="n">
-        <v>11.24154376983643</v>
+        <v>9.043200492858887</v>
       </c>
       <c r="D6" t="n">
-        <v>13.1090784072876</v>
+        <v>12.92797565460205</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +533,13 @@
         <v>2003</v>
       </c>
       <c r="B7" t="n">
-        <v>12.31161594390869</v>
+        <v>10.72574043273926</v>
       </c>
       <c r="C7" t="n">
-        <v>11.37516021728516</v>
+        <v>9.101747512817383</v>
       </c>
       <c r="D7" t="n">
-        <v>13.24807167053223</v>
+        <v>12.34973335266113</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         <v>2004</v>
       </c>
       <c r="B8" t="n">
-        <v>12.36452960968018</v>
+        <v>10.81793689727783</v>
       </c>
       <c r="C8" t="n">
-        <v>11.24722671508789</v>
+        <v>9.069536209106445</v>
       </c>
       <c r="D8" t="n">
-        <v>13.48183250427246</v>
+        <v>12.56633758544922</v>
       </c>
     </row>
     <row r="9">
@@ -561,13 +561,13 @@
         <v>2005</v>
       </c>
       <c r="B9" t="n">
-        <v>12.41502952575684</v>
+        <v>10.71114444732666</v>
       </c>
       <c r="C9" t="n">
-        <v>11.35782241821289</v>
+        <v>8.909171104431152</v>
       </c>
       <c r="D9" t="n">
-        <v>13.47223663330078</v>
+        <v>12.51311779022217</v>
       </c>
     </row>
     <row r="10">
@@ -575,13 +575,13 @@
         <v>2006</v>
       </c>
       <c r="B10" t="n">
-        <v>12.35570335388184</v>
+        <v>10.69906520843506</v>
       </c>
       <c r="C10" t="n">
-        <v>11.34793853759766</v>
+        <v>8.851362228393555</v>
       </c>
       <c r="D10" t="n">
-        <v>13.36346817016602</v>
+        <v>12.54676818847656</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         <v>2007</v>
       </c>
       <c r="B11" t="n">
-        <v>12.43929862976074</v>
+        <v>10.80725955963135</v>
       </c>
       <c r="C11" t="n">
-        <v>11.14403057098389</v>
+        <v>9.141427993774414</v>
       </c>
       <c r="D11" t="n">
-        <v>13.7345666885376</v>
+        <v>12.47309112548828</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +603,13 @@
         <v>2008</v>
       </c>
       <c r="B12" t="n">
-        <v>12.53302478790283</v>
+        <v>10.32302856445312</v>
       </c>
       <c r="C12" t="n">
-        <v>11.29934310913086</v>
+        <v>8.793585777282715</v>
       </c>
       <c r="D12" t="n">
-        <v>13.7667064666748</v>
+        <v>11.85247135162354</v>
       </c>
     </row>
     <row r="13">
@@ -617,13 +617,13 @@
         <v>2009</v>
       </c>
       <c r="B13" t="n">
-        <v>12.55170726776123</v>
+        <v>10.52583789825439</v>
       </c>
       <c r="C13" t="n">
-        <v>11.16778469085693</v>
+        <v>8.420871734619141</v>
       </c>
       <c r="D13" t="n">
-        <v>13.93562984466553</v>
+        <v>12.63080406188965</v>
       </c>
     </row>
     <row r="14">
@@ -631,13 +631,13 @@
         <v>2010</v>
       </c>
       <c r="B14" t="n">
-        <v>12.42649459838867</v>
+        <v>10.37648868560791</v>
       </c>
       <c r="C14" t="n">
-        <v>10.72443675994873</v>
+        <v>8.44385814666748</v>
       </c>
       <c r="D14" t="n">
-        <v>14.12855243682861</v>
+        <v>12.30911922454834</v>
       </c>
     </row>
     <row r="15">
@@ -645,13 +645,13 @@
         <v>2011</v>
       </c>
       <c r="B15" t="n">
-        <v>12.43374919891357</v>
+        <v>10.5073356628418</v>
       </c>
       <c r="C15" t="n">
-        <v>10.93717479705811</v>
+        <v>8.683886528015137</v>
       </c>
       <c r="D15" t="n">
-        <v>13.93032360076904</v>
+        <v>12.33078479766846</v>
       </c>
     </row>
     <row r="16">
@@ -659,13 +659,13 @@
         <v>2012</v>
       </c>
       <c r="B16" t="n">
-        <v>12.17960166931152</v>
+        <v>10.5653247833252</v>
       </c>
       <c r="C16" t="n">
-        <v>10.83210754394531</v>
+        <v>8.81348991394043</v>
       </c>
       <c r="D16" t="n">
-        <v>13.52709579467773</v>
+        <v>12.31715965270996</v>
       </c>
     </row>
     <row r="17">
@@ -673,13 +673,13 @@
         <v>2013</v>
       </c>
       <c r="B17" t="n">
-        <v>12.05850601196289</v>
+        <v>10.61689376831055</v>
       </c>
       <c r="C17" t="n">
-        <v>10.79770851135254</v>
+        <v>8.903045654296875</v>
       </c>
       <c r="D17" t="n">
-        <v>13.31930351257324</v>
+        <v>12.33074188232422</v>
       </c>
     </row>
     <row r="18">
@@ -687,13 +687,13 @@
         <v>2014</v>
       </c>
       <c r="B18" t="n">
-        <v>12.25290679931641</v>
+        <v>10.37141704559326</v>
       </c>
       <c r="C18" t="n">
-        <v>11.27212429046631</v>
+        <v>8.604081153869629</v>
       </c>
       <c r="D18" t="n">
-        <v>13.2336893081665</v>
+        <v>12.13875293731689</v>
       </c>
     </row>
     <row r="19">
@@ -701,13 +701,13 @@
         <v>2015</v>
       </c>
       <c r="B19" t="n">
-        <v>12.35418224334717</v>
+        <v>10.57340145111084</v>
       </c>
       <c r="C19" t="n">
-        <v>11.12815284729004</v>
+        <v>9.01057243347168</v>
       </c>
       <c r="D19" t="n">
-        <v>13.5802116394043</v>
+        <v>12.13623046875</v>
       </c>
     </row>
     <row r="20">
@@ -715,83 +715,13 @@
         <v>2016</v>
       </c>
       <c r="B20" t="n">
-        <v>12.29015159606934</v>
+        <v>11.02840232849121</v>
       </c>
       <c r="C20" t="n">
-        <v>10.98985290527344</v>
+        <v>9.15681266784668</v>
       </c>
       <c r="D20" t="n">
-        <v>13.59045028686523</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B21" t="n">
-        <v>12.33321285247803</v>
-      </c>
-      <c r="C21" t="n">
-        <v>11.03499698638916</v>
-      </c>
-      <c r="D21" t="n">
-        <v>13.63142871856689</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B22" t="n">
-        <v>12.35291194915771</v>
-      </c>
-      <c r="C22" t="n">
-        <v>11.28211784362793</v>
-      </c>
-      <c r="D22" t="n">
-        <v>13.4237060546875</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B23" t="n">
-        <v>12.25549411773682</v>
-      </c>
-      <c r="C23" t="n">
-        <v>11.20759201049805</v>
-      </c>
-      <c r="D23" t="n">
-        <v>13.30339622497559</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B24" t="n">
-        <v>12.30860328674316</v>
-      </c>
-      <c r="C24" t="n">
-        <v>11.24204921722412</v>
-      </c>
-      <c r="D24" t="n">
-        <v>13.37515735626221</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B25" t="n">
-        <v>12.32759952545166</v>
-      </c>
-      <c r="C25" t="n">
-        <v>11.39464378356934</v>
-      </c>
-      <c r="D25" t="n">
-        <v>13.26055526733398</v>
+        <v>12.89999198913574</v>
       </c>
     </row>
   </sheetData>
@@ -837,72 +767,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>10.00356483459473</v>
+        <v>10.99692821502686</v>
       </c>
       <c r="C2" t="n">
-        <v>8.872706184821157</v>
+        <v>8.85529899597168</v>
       </c>
       <c r="D2" t="n">
-        <v>11.1344234843683</v>
+        <v>13.13855743408203</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>12.1251181602478</v>
+        <v>10.98466110229492</v>
       </c>
       <c r="C3" t="n">
-        <v>10.18821525486863</v>
+        <v>8.841738700866699</v>
       </c>
       <c r="D3" t="n">
-        <v>14.06202106562698</v>
+        <v>13.12758350372314</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>7.935553550720215</v>
+        <v>10.95405006408691</v>
       </c>
       <c r="C4" t="n">
-        <v>6.153659638805905</v>
+        <v>9.261375427246094</v>
       </c>
       <c r="D4" t="n">
-        <v>9.717447462634524</v>
+        <v>12.64672470092773</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>10.13203735351562</v>
+        <v>10.78658580780029</v>
       </c>
       <c r="C5" t="n">
-        <v>9.187611531682427</v>
+        <v>9.170445442199707</v>
       </c>
       <c r="D5" t="n">
-        <v>11.07646317534882</v>
+        <v>12.40272617340088</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>12.36608943939209</v>
+        <v>10.59100151062012</v>
       </c>
       <c r="C6" t="n">
-        <v>10.98550951974721</v>
+        <v>9.051490783691406</v>
       </c>
       <c r="D6" t="n">
-        <v>13.74666935903697</v>
+        <v>12.13051223754883</v>
       </c>
     </row>
   </sheetData>
@@ -951,13 +881,13 @@
         <v>1998</v>
       </c>
       <c r="B2" t="n">
-        <v>9.393858909606934</v>
+        <v>11.69742202758789</v>
       </c>
       <c r="C2" t="n">
-        <v>7.674709320068359</v>
+        <v>10.18170356750488</v>
       </c>
       <c r="D2" t="n">
-        <v>11.11300849914551</v>
+        <v>13.2131404876709</v>
       </c>
     </row>
     <row r="3">
@@ -965,13 +895,13 @@
         <v>1999</v>
       </c>
       <c r="B3" t="n">
-        <v>9.60783576965332</v>
+        <v>11.68692779541016</v>
       </c>
       <c r="C3" t="n">
-        <v>7.365233898162842</v>
+        <v>10.04307746887207</v>
       </c>
       <c r="D3" t="n">
-        <v>11.85043716430664</v>
+        <v>13.33077812194824</v>
       </c>
     </row>
     <row r="4">
@@ -979,13 +909,13 @@
         <v>2000</v>
       </c>
       <c r="B4" t="n">
-        <v>9.573410987854004</v>
+        <v>11.67258262634277</v>
       </c>
       <c r="C4" t="n">
-        <v>7.323797225952148</v>
+        <v>9.898194313049316</v>
       </c>
       <c r="D4" t="n">
-        <v>11.82302474975586</v>
+        <v>13.44697093963623</v>
       </c>
     </row>
     <row r="5">
@@ -993,13 +923,13 @@
         <v>2001</v>
       </c>
       <c r="B5" t="n">
-        <v>9.687713623046875</v>
+        <v>11.76725387573242</v>
       </c>
       <c r="C5" t="n">
-        <v>7.353397369384766</v>
+        <v>9.791730880737305</v>
       </c>
       <c r="D5" t="n">
-        <v>12.02202987670898</v>
+        <v>13.74277687072754</v>
       </c>
     </row>
     <row r="6">
@@ -1007,13 +937,13 @@
         <v>2002</v>
       </c>
       <c r="B6" t="n">
-        <v>9.612914085388184</v>
+        <v>11.68439197540283</v>
       </c>
       <c r="C6" t="n">
-        <v>7.379056930541992</v>
+        <v>9.439462661743164</v>
       </c>
       <c r="D6" t="n">
-        <v>11.84677124023438</v>
+        <v>13.9293212890625</v>
       </c>
     </row>
     <row r="7">
@@ -1021,13 +951,13 @@
         <v>2003</v>
       </c>
       <c r="B7" t="n">
-        <v>9.68009090423584</v>
+        <v>11.8934154510498</v>
       </c>
       <c r="C7" t="n">
-        <v>7.225525856018066</v>
+        <v>10.34778594970703</v>
       </c>
       <c r="D7" t="n">
-        <v>12.13465595245361</v>
+        <v>13.43904495239258</v>
       </c>
     </row>
     <row r="8">
@@ -1035,13 +965,13 @@
         <v>2004</v>
       </c>
       <c r="B8" t="n">
-        <v>9.468762397766113</v>
+        <v>11.94884777069092</v>
       </c>
       <c r="C8" t="n">
-        <v>6.621222496032715</v>
+        <v>10.27757835388184</v>
       </c>
       <c r="D8" t="n">
-        <v>12.31630229949951</v>
+        <v>13.6201171875</v>
       </c>
     </row>
     <row r="9">
@@ -1049,13 +979,13 @@
         <v>2005</v>
       </c>
       <c r="B9" t="n">
-        <v>9.438554763793945</v>
+        <v>11.74761581420898</v>
       </c>
       <c r="C9" t="n">
-        <v>6.51248836517334</v>
+        <v>10.07667541503906</v>
       </c>
       <c r="D9" t="n">
-        <v>12.36462116241455</v>
+        <v>13.41855621337891</v>
       </c>
     </row>
     <row r="10">
@@ -1063,13 +993,13 @@
         <v>2006</v>
       </c>
       <c r="B10" t="n">
-        <v>9.523812294006348</v>
+        <v>11.58043479919434</v>
       </c>
       <c r="C10" t="n">
-        <v>6.374910354614258</v>
+        <v>9.909200668334961</v>
       </c>
       <c r="D10" t="n">
-        <v>12.67271423339844</v>
+        <v>13.25166893005371</v>
       </c>
     </row>
     <row r="11">
@@ -1077,13 +1007,13 @@
         <v>2007</v>
       </c>
       <c r="B11" t="n">
-        <v>9.540365219116211</v>
+        <v>11.59704971313477</v>
       </c>
       <c r="C11" t="n">
-        <v>6.526689052581787</v>
+        <v>10.12209129333496</v>
       </c>
       <c r="D11" t="n">
-        <v>12.55404090881348</v>
+        <v>13.07200813293457</v>
       </c>
     </row>
     <row r="12">
@@ -1091,13 +1021,13 @@
         <v>2008</v>
       </c>
       <c r="B12" t="n">
-        <v>9.709902763366699</v>
+        <v>11.6117992401123</v>
       </c>
       <c r="C12" t="n">
-        <v>7.498802185058594</v>
+        <v>9.920881271362305</v>
       </c>
       <c r="D12" t="n">
-        <v>11.9210033416748</v>
+        <v>13.3027172088623</v>
       </c>
     </row>
     <row r="13">
@@ -1105,13 +1035,13 @@
         <v>2009</v>
       </c>
       <c r="B13" t="n">
-        <v>9.626256942749023</v>
+        <v>11.74165153503418</v>
       </c>
       <c r="C13" t="n">
-        <v>7.482936859130859</v>
+        <v>10.74142742156982</v>
       </c>
       <c r="D13" t="n">
-        <v>11.76957702636719</v>
+        <v>12.74187564849854</v>
       </c>
     </row>
     <row r="14">
@@ -1119,13 +1049,13 @@
         <v>2010</v>
       </c>
       <c r="B14" t="n">
-        <v>9.570809364318848</v>
+        <v>11.99887180328369</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78149938583374</v>
+        <v>10.64137554168701</v>
       </c>
       <c r="D14" t="n">
-        <v>12.3601188659668</v>
+        <v>13.35636806488037</v>
       </c>
     </row>
     <row r="15">
@@ -1133,13 +1063,13 @@
         <v>2011</v>
       </c>
       <c r="B15" t="n">
-        <v>9.765785217285156</v>
+        <v>12.22742652893066</v>
       </c>
       <c r="C15" t="n">
-        <v>7.088279724121094</v>
+        <v>10.75919437408447</v>
       </c>
       <c r="D15" t="n">
-        <v>12.44329071044922</v>
+        <v>13.69565868377686</v>
       </c>
     </row>
     <row r="16">
@@ -1147,13 +1077,13 @@
         <v>2012</v>
       </c>
       <c r="B16" t="n">
-        <v>9.260878562927246</v>
+        <v>12.20884227752686</v>
       </c>
       <c r="C16" t="n">
-        <v>5.922958850860596</v>
+        <v>10.83751773834229</v>
       </c>
       <c r="D16" t="n">
-        <v>12.59879875183105</v>
+        <v>13.58016681671143</v>
       </c>
     </row>
     <row r="17">
@@ -1161,13 +1091,13 @@
         <v>2013</v>
       </c>
       <c r="B17" t="n">
-        <v>9.423269271850586</v>
+        <v>12.04360961914062</v>
       </c>
       <c r="C17" t="n">
-        <v>6.267827987670898</v>
+        <v>10.92524719238281</v>
       </c>
       <c r="D17" t="n">
-        <v>12.57871055603027</v>
+        <v>13.16197204589844</v>
       </c>
     </row>
     <row r="18">
@@ -1175,13 +1105,13 @@
         <v>2014</v>
       </c>
       <c r="B18" t="n">
-        <v>9.535511016845703</v>
+        <v>11.79765701293945</v>
       </c>
       <c r="C18" t="n">
-        <v>6.683730125427246</v>
+        <v>10.17565441131592</v>
       </c>
       <c r="D18" t="n">
-        <v>12.38729190826416</v>
+        <v>13.41965961456299</v>
       </c>
     </row>
     <row r="19">
@@ -1189,13 +1119,13 @@
         <v>2015</v>
       </c>
       <c r="B19" t="n">
-        <v>9.194707870483398</v>
+        <v>11.85820388793945</v>
       </c>
       <c r="C19" t="n">
-        <v>6.116043090820312</v>
+        <v>10.22208023071289</v>
       </c>
       <c r="D19" t="n">
-        <v>12.27337265014648</v>
+        <v>13.49432754516602</v>
       </c>
     </row>
     <row r="20">
@@ -1203,13 +1133,13 @@
         <v>2016</v>
       </c>
       <c r="B20" t="n">
-        <v>8.980609893798828</v>
+        <v>11.88082218170166</v>
       </c>
       <c r="C20" t="n">
-        <v>5.801022529602051</v>
+        <v>10.23447227478027</v>
       </c>
       <c r="D20" t="n">
-        <v>12.16019725799561</v>
+        <v>13.52717208862305</v>
       </c>
     </row>
     <row r="21">
@@ -1217,13 +1147,13 @@
         <v>2017</v>
       </c>
       <c r="B21" t="n">
-        <v>8.978344917297363</v>
+        <v>11.98799324035645</v>
       </c>
       <c r="C21" t="n">
-        <v>5.721695899963379</v>
+        <v>10.64501190185547</v>
       </c>
       <c r="D21" t="n">
-        <v>12.23499393463135</v>
+        <v>13.33097457885742</v>
       </c>
     </row>
     <row r="22">
@@ -1231,13 +1161,13 @@
         <v>2018</v>
       </c>
       <c r="B22" t="n">
-        <v>8.956086158752441</v>
+        <v>11.96196746826172</v>
       </c>
       <c r="C22" t="n">
-        <v>5.844857215881348</v>
+        <v>10.95006847381592</v>
       </c>
       <c r="D22" t="n">
-        <v>12.06731510162354</v>
+        <v>12.97386646270752</v>
       </c>
     </row>
     <row r="23">
@@ -1245,13 +1175,13 @@
         <v>2019</v>
       </c>
       <c r="B23" t="n">
-        <v>8.901259422302246</v>
+        <v>12.16017436981201</v>
       </c>
       <c r="C23" t="n">
-        <v>5.615492820739746</v>
+        <v>11.12859535217285</v>
       </c>
       <c r="D23" t="n">
-        <v>12.18702602386475</v>
+        <v>13.19175338745117</v>
       </c>
     </row>
     <row r="24">
@@ -1259,13 +1189,13 @@
         <v>2020</v>
       </c>
       <c r="B24" t="n">
-        <v>8.900486946105957</v>
+        <v>12.22098159790039</v>
       </c>
       <c r="C24" t="n">
-        <v>5.708073616027832</v>
+        <v>10.88149642944336</v>
       </c>
       <c r="D24" t="n">
-        <v>12.09290027618408</v>
+        <v>13.56046676635742</v>
       </c>
     </row>
     <row r="25">
@@ -1273,13 +1203,13 @@
         <v>2021</v>
       </c>
       <c r="B25" t="n">
-        <v>8.848008155822754</v>
+        <v>12.14013862609863</v>
       </c>
       <c r="C25" t="n">
-        <v>5.6971435546875</v>
+        <v>10.56442356109619</v>
       </c>
       <c r="D25" t="n">
-        <v>11.99887275695801</v>
+        <v>13.71585369110107</v>
       </c>
     </row>
   </sheetData>
@@ -1328,13 +1258,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>11.68249397277832</v>
+        <v>12.46185064315796</v>
       </c>
       <c r="C2" t="n">
-        <v>10.54810393169179</v>
+        <v>10.51140741107281</v>
       </c>
       <c r="D2" t="n">
-        <v>12.81688401386485</v>
+        <v>14.41229387524311</v>
       </c>
     </row>
     <row r="3">
@@ -1342,13 +1272,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>11.27539663314819</v>
+        <v>11.49272861480713</v>
       </c>
       <c r="C3" t="n">
-        <v>9.59031318539714</v>
+        <v>10.05372810742439</v>
       </c>
       <c r="D3" t="n">
-        <v>12.96048008089925</v>
+        <v>12.93172912218987</v>
       </c>
     </row>
     <row r="4">
@@ -1356,13 +1286,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>9.564865446090698</v>
+        <v>9.641169261932372</v>
       </c>
       <c r="C4" t="n">
-        <v>8.117980650451818</v>
+        <v>6.991817976711554</v>
       </c>
       <c r="D4" t="n">
-        <v>11.01175024172958</v>
+        <v>12.29052054715319</v>
       </c>
     </row>
     <row r="5">
@@ -1370,13 +1300,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>12.78451681137085</v>
+        <v>8.470860958099365</v>
       </c>
       <c r="C5" t="n">
-        <v>11.11025933087562</v>
+        <v>6.89958425429014</v>
       </c>
       <c r="D5" t="n">
-        <v>14.45877429186608</v>
+        <v>10.04213766190859</v>
       </c>
     </row>
     <row r="6">
@@ -1384,13 +1314,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>9.487854290008546</v>
+        <v>11.37625398635864</v>
       </c>
       <c r="C6" t="n">
-        <v>8.212228141493776</v>
+        <v>10.17539739914773</v>
       </c>
       <c r="D6" t="n">
-        <v>10.76348043852331</v>
+        <v>12.57711057356956</v>
       </c>
     </row>
   </sheetData>
